--- a/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Klassen_Statistiken_gesamt.xlsx
+++ b/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Klassen_Statistiken_gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st1174360\Documents\GitHub\CodeBTh04\arbeitspakete\01_klassifizierung\02_Datenerkundung\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st1172355\Documents\GitHub\CodeBTh04\arbeitspakete\01_klassifizierung\02_Datenerkundung\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA76C26-CF87-4A02-B654-CA2A3BD13E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD0652D-7792-40CD-9DBE-6E4CAF6BA6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="5820" windowWidth="25305" windowHeight="11850" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="23040" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bäume" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="32">
   <si>
     <t>X coordinate</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Wasser</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -480,22 +486,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="A1:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -574,7 +580,7 @@
         <v>893729</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -615,7 +621,7 @@
         <v>19.36517976377408</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -656,7 +662,7 @@
         <v>7.272329912571962</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -697,7 +703,7 @@
         <v>1.1764705882352939</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -738,7 +744,7 @@
         <v>14.509803921568629</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -779,7 +785,7 @@
         <v>19.21568627450981</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,7 +826,7 @@
         <v>23.921568627450981</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -859,6 +865,72 @@
       </c>
       <c r="M9">
         <v>65.098039215686271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>43.026958955119497</v>
+      </c>
+      <c r="F14">
+        <v>48.857713020389852</v>
+      </c>
+      <c r="G14">
+        <v>46.269588432287641</v>
+      </c>
+      <c r="H14">
+        <v>141.80412303585379</v>
+      </c>
+      <c r="I14">
+        <v>15.477425866183509</v>
+      </c>
+      <c r="J14">
+        <v>19.36517976377408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>17.33189511044823</v>
+      </c>
+      <c r="F15">
+        <v>17.884165985425049</v>
+      </c>
+      <c r="G15">
+        <v>18.81751717188839</v>
+      </c>
+      <c r="H15">
+        <v>40.205990662886158</v>
+      </c>
+      <c r="I15">
+        <v>6.5537803573843973</v>
+      </c>
+      <c r="J15">
+        <v>7.272329912571962</v>
       </c>
     </row>
   </sheetData>
@@ -874,14 +946,14 @@
       <selection activeCell="E8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -960,7 +1032,7 @@
         <v>400903</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,7 +1073,7 @@
         <v>39.663617227246753</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,7 +1114,7 @@
         <v>7.3057841480475476</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1155,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1196,7 @@
         <v>34.901960784313722</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1165,7 +1237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1278,7 @@
         <v>45.098039215686278</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1260,9 +1332,9 @@
       <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1413,7 @@
         <v>12371</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1454,7 @@
         <v>30.979060769890371</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1495,7 @@
         <v>5.5708897479809112</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1464,7 +1536,7 @@
         <v>11.76470588235294</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,7 +1577,7 @@
         <v>25.882352941176471</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1618,7 @@
         <v>31.764705882352938</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1659,7 @@
         <v>34.901960784313722</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,9 +1711,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1720,7 +1792,7 @@
         <v>972121</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1761,7 +1833,7 @@
         <v>28.187015208770021</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +1874,7 @@
         <v>6.225694318815358</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1843,7 +1915,7 @@
         <v>3.5294117647058818</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1884,7 +1956,7 @@
         <v>24.313725490196081</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +1997,7 @@
         <v>29.411764705882359</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +2038,7 @@
         <v>32.549019607843142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2020,9 +2092,9 @@
       <selection activeCell="G21" sqref="E20:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2101,7 +2173,7 @@
         <v>233747</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2142,7 +2214,7 @@
         <v>30.065912558215061</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2183,7 +2255,7 @@
         <v>4.0363239720727728</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2296,7 @@
         <v>6.2745098039215694</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2337,7 @@
         <v>27.843137254901961</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2306,7 +2378,7 @@
         <v>30.196078431372548</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2347,7 +2419,7 @@
         <v>32.549019607843142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2399,9 +2471,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2480,7 +2552,7 @@
         <v>155794</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2521,7 +2593,7 @@
         <v>47.627915897991997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2634,7 @@
         <v>8.5607778846484823</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2603,7 +2675,7 @@
         <v>3.5294117647058818</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2644,7 +2716,7 @@
         <v>41.17647058823529</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2757,7 @@
         <v>49.019607843137251</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2726,7 +2798,7 @@
         <v>54.901960784313729</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2778,9 +2850,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +2890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2859,7 +2931,7 @@
         <v>104011</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2900,7 +2972,7 @@
         <v>37.60795285415702</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2941,7 +3013,7 @@
         <v>5.358138248233284</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2982,7 +3054,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3023,7 +3095,7 @@
         <v>34.509803921568633</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3064,7 +3136,7 @@
         <v>38.431372549019613</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3105,7 +3177,7 @@
         <v>41.568627450980401</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3157,9 +3229,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3238,7 +3310,7 @@
         <v>40895</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3351,7 @@
         <v>44.122120495098628</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3320,7 +3392,7 @@
         <v>5.3172112059698478</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3433,7 @@
         <v>19.21568627450981</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +3474,7 @@
         <v>40.784313725490193</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3443,7 +3515,7 @@
         <v>43.137254901960787</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3484,7 +3556,7 @@
         <v>48.235294117647058</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3534,11 +3606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3582,7 +3654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3670,7 +3742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3714,7 +3786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3758,7 +3830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3802,7 +3874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3846,7 +3918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3890,7 +3962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3934,7 +4006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3978,7 +4050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4022,7 +4094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4066,7 +4138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4110,7 +4182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4154,7 +4226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -4198,7 +4270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -4242,7 +4314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4286,7 +4358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4330,7 +4402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4374,7 +4446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -4418,7 +4490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4462,7 +4534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -4506,7 +4578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -4550,7 +4622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -4594,7 +4666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4638,7 +4710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4682,7 +4754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4726,7 +4798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -4770,7 +4842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4814,7 +4886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -4858,7 +4930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4902,7 +4974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -4946,7 +5018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -4990,7 +5062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -5034,7 +5106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5078,7 +5150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -5122,7 +5194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5166,7 +5238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5210,7 +5282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -5254,7 +5326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -5298,7 +5370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -5342,7 +5414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -5386,7 +5458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -5430,7 +5502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -5474,7 +5546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5518,7 +5590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5562,7 +5634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -5606,7 +5678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -5650,7 +5722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -5694,7 +5766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -5738,7 +5810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5782,7 +5854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -5826,7 +5898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5870,7 +5942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -5914,7 +5986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -5958,7 +6030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -6002,7 +6074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -6046,7 +6118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -6090,7 +6162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -6134,7 +6206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -6178,7 +6250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -6222,7 +6294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -6266,7 +6338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -6310,7 +6382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -6354,7 +6426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>

--- a/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Klassen_Statistiken_gesamt.xlsx
+++ b/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Klassen_Statistiken_gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st1172355\Documents\GitHub\CodeBTh04\arbeitspakete\01_klassifizierung\02_Datenerkundung\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\CodeBTh04\arbeitspakete\01_klassifizierung\02_Datenerkundung\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD0652D-7792-40CD-9DBE-6E4CAF6BA6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCFC6D-E03E-423A-8955-26A4ED412CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="23040" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bäume" sheetId="1" r:id="rId1"/>
@@ -488,20 +488,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1015625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -580,7 +580,7 @@
         <v>893729</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -621,7 +621,7 @@
         <v>19.36517976377408</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -662,7 +662,7 @@
         <v>7.272329912571962</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -703,7 +703,7 @@
         <v>1.1764705882352939</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -744,7 +744,7 @@
         <v>14.509803921568629</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -785,7 +785,7 @@
         <v>19.21568627450981</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -826,7 +826,7 @@
         <v>23.921568627450981</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -867,7 +867,7 @@
         <v>65.098039215686271</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
         <v>30</v>
       </c>
@@ -910,7 +910,7 @@
         <v>19.36517976377408</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -942,18 +942,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>400903</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>7.2696176546446389E-2</v>
       </c>
       <c r="K3">
-        <v>110.7307141591116</v>
+        <v>24.55</v>
       </c>
       <c r="L3">
         <v>10.759387461925821</v>
@@ -1073,7 +1073,7 @@
         <v>39.663617227246753</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.2241743250380088</v>
       </c>
       <c r="K4">
-        <v>115.0381949292821</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>5.4198279295976981</v>
@@ -1114,7 +1114,7 @@
         <v>7.3057841480475476</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>34.901960784313722</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>45.098039215686278</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1329,12 +1329,12 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>12371</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0.89922414727992883</v>
       </c>
       <c r="K3">
-        <v>220.12539390055181</v>
+        <v>263.72000000000003</v>
       </c>
       <c r="L3">
         <v>10.885542173891629</v>
@@ -1454,7 +1454,7 @@
         <v>30.979060769890371</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0.21389002318915029</v>
       </c>
       <c r="K4">
-        <v>109.557593595206</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>3.407649271771036</v>
@@ -1495,7 +1495,7 @@
         <v>5.5708897479809112</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>11.76470588235294</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>25.882352941176471</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>31.764705882352938</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>34.901960784313722</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1711,9 +1711,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>972121</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>28.187015208770021</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>6.225694318815358</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>3.5294117647058818</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>24.313725490196081</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>29.411764705882359</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>32.549019607843142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2089,12 +2089,12 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="E20:G21"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>233747</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>0.72069935494787096</v>
       </c>
       <c r="K3">
-        <v>121.0462294476439</v>
+        <v>4.5</v>
       </c>
       <c r="L3">
         <v>27.347977766337589</v>
@@ -2214,7 +2214,7 @@
         <v>30.065912558215061</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>4.0363239720727728</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>6.2745098039215694</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>27.843137254901961</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>30.196078431372548</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>32.549019607843142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2469,11 +2469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>155794</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>0.97311326312309843</v>
       </c>
       <c r="K3">
-        <v>185.81457925612139</v>
+        <v>3.7</v>
       </c>
       <c r="L3">
         <v>7.6521826018235952</v>
@@ -2593,7 +2595,7 @@
         <v>47.627915897991997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>0.123032559145518</v>
       </c>
       <c r="K4">
-        <v>145.16984465326169</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>5.012320107645543</v>
@@ -2634,7 +2636,7 @@
         <v>8.5607778846484823</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>3.5294117647058818</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>41.17647058823529</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>49.019607843137251</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>54.901960784313729</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2848,11 +2850,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>104011</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>37.60795285415702</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>5.358138248233284</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3095,7 +3099,7 @@
         <v>34.509803921568633</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>38.431372549019613</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>41.568627450980401</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3229,9 +3233,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>40895</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>44.122120495098628</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>5.3172112059698478</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>19.21568627450981</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>40.784313725490193</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>43.137254901960787</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>48.235294117647058</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3608,9 +3612,9 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3874,7 +3878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4094,7 +4098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4138,7 +4142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -4490,7 +4494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -4578,7 +4582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4798,7 +4802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4886,7 +4890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -4930,7 +4934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4974,7 +4978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -5106,7 +5110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5150,7 +5154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -5326,7 +5330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5634,7 +5638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -5898,7 +5902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -6030,7 +6034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -6162,7 +6166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>19</v>
       </c>
